--- a/DataTable/DataTable1.xlsx
+++ b/DataTable/DataTable1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,27 +584,27 @@
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -633,11 +633,11 @@
     <hyperlink ref="A22" r:id="rId22"/>
     <hyperlink ref="A23" r:id="rId23"/>
     <hyperlink ref="A24" r:id="rId24"/>
-    <hyperlink ref="A25" r:id="rId25"/>
-    <hyperlink ref="A26" r:id="rId26"/>
-    <hyperlink ref="A27" r:id="rId27"/>
-    <hyperlink ref="A28" r:id="rId28"/>
-    <hyperlink ref="A29" r:id="rId29"/>
+    <hyperlink ref="A28" r:id="rId25"/>
+    <hyperlink ref="A25" r:id="rId26"/>
+    <hyperlink ref="A26" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A27" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId30"/>
